--- a/Processed_data/Resin_Nutrients.xlsx
+++ b/Processed_data/Resin_Nutrients.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-21.12348272642391</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E2">
-        <v>0.4028944911297853</v>
+        <v>0.1463585434173669</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-22.03994708994709</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3">
-        <v>0.5677248677248677</v>
+        <v>0.276984126984127</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-21.42359667359668</v>
+        <v>0.07484407484407483</v>
       </c>
       <c r="E4">
-        <v>0.04002079002079005</v>
+        <v>0.261954261954262</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-20.74131578947368</v>
+        <v>1.028684210526316</v>
       </c>
       <c r="E5">
         <v>0.2652631578947369</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-2.311657032755297</v>
+        <v>17.61271676300578</v>
       </c>
       <c r="E6">
-        <v>1.996628131021194</v>
+        <v>1.731936416184971</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.617171717171717</v>
+        <v>22.50757575757576</v>
       </c>
       <c r="E7">
-        <v>2.900252525252526</v>
+        <v>2.622727272727273</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-22.17828282828283</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="E8">
-        <v>0.1494949494949495</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>-8.788793103448276</v>
+        <v>12.18635902636917</v>
       </c>
       <c r="E9">
-        <v>1.171653144016227</v>
+        <v>0.8930020283975659</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>31.1243667679838</v>
+        <v>52.07826747720365</v>
       </c>
       <c r="E10">
-        <v>2.747973657548126</v>
+        <v>2.469604863221885</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-14.68591617933723</v>
+        <v>5.471491228070176</v>
       </c>
       <c r="E11">
         <v>0.2456140350877193</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-15.37599800399202</v>
+        <v>5.264221556886228</v>
       </c>
       <c r="E12">
-        <v>0.1941117764471058</v>
+        <v>0.251497005988024</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>-19.1392523364486</v>
+        <v>0.1892523364485981</v>
       </c>
       <c r="E13">
-        <v>0.2981308411214953</v>
+        <v>0.04135514018691588</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>-18.95520520520521</v>
+        <v>1.746996996996997</v>
       </c>
       <c r="E14">
-        <v>0.2344844844844845</v>
+        <v>0.2522522522522523</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>-7.487798926305516</v>
+        <v>12.699121522694</v>
       </c>
       <c r="E15">
-        <v>0.4958516349438751</v>
+        <v>0.2276720351390923</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>-23.33098933074685</v>
+        <v>0.2444228903976722</v>
       </c>
       <c r="E16">
-        <v>0.1631910766246363</v>
+        <v>0.2444228903976722</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>-14.65841346153846</v>
+        <v>5.227644230769231</v>
       </c>
       <c r="E17">
-        <v>0.04711538461538466</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>-23.68798076923077</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="E18">
-        <v>0.07019230769230772</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>-15.26275</v>
+        <v>5.41875</v>
       </c>
       <c r="E19">
-        <v>1.024</v>
+        <v>0.74925</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>-23.22283653846154</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="E20">
-        <v>0.411298076923077</v>
+        <v>0.1471153846153846</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>-17.51187015503876</v>
+        <v>2.528343023255814</v>
       </c>
       <c r="E21">
-        <v>0.374515503875969</v>
+        <v>0.1082848837209302</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>-23.28018500486855</v>
+        <v>0.2453748782862707</v>
       </c>
       <c r="E22">
-        <v>0.02945472249269723</v>
+        <v>0.2453748782862707</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>-21.60558852621168</v>
+        <v>0.2492581602373888</v>
       </c>
       <c r="E23">
         <v>0.2492581602373888</v>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>-19.79021317829457</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
-        <v>0.7567829457364341</v>
+        <v>0.4905523255813953</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>-12.07747524752475</v>
+        <v>8.399257425742574</v>
       </c>
       <c r="E25">
-        <v>1.975495049504951</v>
+        <v>1.703465346534653</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>-20.04676787463271</v>
+        <v>0.2093535749265426</v>
       </c>
       <c r="E26">
         <v>0.2468168462291871</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>-19.20533980582524</v>
+        <v>0.8737864077669902</v>
       </c>
       <c r="E27">
-        <v>0.387621359223301</v>
+        <v>0.120873786407767</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>-19.33265306122449</v>
+        <v>1.770918367346939</v>
       </c>
       <c r="E28">
         <v>0.2571428571428572</v>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>-19.10104166666667</v>
+        <v>2.4421875</v>
       </c>
       <c r="E29">
-        <v>0.06354166666666669</v>
+        <v>0.2625</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>-19.51237373737374</v>
+        <v>1.378030303030303</v>
       </c>
       <c r="E30">
-        <v>0.0926767676767677</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>-21.02318355640535</v>
+        <v>0.2409177820267687</v>
       </c>
       <c r="E31">
-        <v>0.01242829827915872</v>
+        <v>0.2409177820267687</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="D32">
-        <v>-20.07324516785351</v>
+        <v>0.9659206510681586</v>
       </c>
       <c r="E32">
-        <v>0.6327568667344863</v>
+        <v>0.3532553407934893</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="D33">
-        <v>-15.94684466019418</v>
+        <v>4.132281553398058</v>
       </c>
       <c r="E33">
-        <v>0.7779126213592232</v>
+        <v>0.5111650485436893</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="D34">
-        <v>-18.7145390070922</v>
+        <v>2.23936170212766</v>
       </c>
       <c r="E34">
-        <v>0.3308004052684905</v>
+        <v>0.05243161094224924</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="D35">
-        <v>-14.89929149797571</v>
+        <v>6.033400809716599</v>
       </c>
       <c r="E35">
-        <v>0.521002024291498</v>
+        <v>0.242914979757085</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>-7.427403846153847</v>
+        <v>12.45865384615385</v>
       </c>
       <c r="E36">
-        <v>3.906730769230769</v>
+        <v>3.642548076923077</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D37">
-        <v>2.726459510357816</v>
+        <v>22.20056497175141</v>
       </c>
       <c r="E37">
-        <v>1.074387947269303</v>
+        <v>0.8156779661016949</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="D38">
-        <v>-14.95864661654135</v>
+        <v>4.478853383458646</v>
       </c>
       <c r="E38">
-        <v>0.05803571428571429</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>1.103283898305083</v>
+        <v>23.01165254237288</v>
       </c>
       <c r="E39">
-        <v>5.249470338983051</v>
+        <v>4.958421610169492</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>37.84139264990328</v>
+        <v>57.84284332688588</v>
       </c>
       <c r="E40">
-        <v>5.037717601547389</v>
+        <v>4.772001934235977</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>-18.09810126582278</v>
+        <v>2.039678675754625</v>
       </c>
       <c r="E41">
-        <v>0.9875851996105161</v>
+        <v>0.7200584225900681</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="D42">
-        <v>-22.76212415130941</v>
+        <v>0.2444228903976722</v>
       </c>
       <c r="E42">
-        <v>0.3275945683802134</v>
+        <v>0.06110572259941804</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>-20.84402764067127</v>
+        <v>0.2487660414610069</v>
       </c>
       <c r="E43">
-        <v>0.2186574531095755</v>
+        <v>0.2487660414610069</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="D44">
-        <v>-20.33490099009901</v>
+        <v>0.1418316831683168</v>
       </c>
       <c r="E44">
-        <v>0.4732673267326733</v>
+        <v>0.2012376237623762</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>-23.20812437311936</v>
+        <v>0.2527582748244734</v>
       </c>
       <c r="E45">
-        <v>0.2733199598796389</v>
+        <v>0.2527582748244734</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1775,86 +1775,86 @@
         </is>
       </c>
       <c r="D46">
-        <v>-20.1385</v>
+        <v>0.5462776659959759</v>
       </c>
       <c r="E46">
-        <v>2.785</v>
+        <v>2.525402414486922</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.111</v>
+        <v>0.1116700201207244</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D47">
-        <v>-20.2945</v>
+        <v>0.543</v>
       </c>
       <c r="E47">
-        <v>0.9857500000000001</v>
+        <v>2.51025</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.7635000000000001</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D48">
-        <v>-25.68325</v>
+        <v>0.387</v>
       </c>
       <c r="E48">
-        <v>0.06550000000000002</v>
+        <v>0.711</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.9060000000000001</v>
+        <v>0.7635000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1864,121 +1864,121 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D49">
-        <v>-15.63824662813102</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="E49">
-        <v>0.1534200385356455</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.5910404624277458</v>
+        <v>0.9060000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D50">
-        <v>-18.154</v>
+        <v>4.286127167630057</v>
       </c>
       <c r="E50">
-        <v>0.05650000000000002</v>
+        <v>0.2427745664739885</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.2835</v>
+        <v>0.5910404624277458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D51">
-        <v>-16.11946050096339</v>
+        <v>2.542756539235413</v>
       </c>
       <c r="E51">
-        <v>2.430154142581888</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.8439306358381503</v>
+        <v>0.2852112676056338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D52">
-        <v>-21.7616988809766</v>
+        <v>2.5275</v>
       </c>
       <c r="E52">
-        <v>0.1864191251271617</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G52">
-        <v>1.120040691759919</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1988,22 +1988,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D53">
-        <v>-10.90887174541948</v>
+        <v>3.804913294797687</v>
       </c>
       <c r="E53">
-        <v>3.743731918997107</v>
+        <v>2.165462427745665</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.5916104146576665</v>
+        <v>0.8439306358381503</v>
       </c>
     </row>
     <row r="54">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2023,55 +2023,55 @@
         </is>
       </c>
       <c r="D54">
-        <v>-19.21435643564357</v>
+        <v>0.2563580874872838</v>
       </c>
       <c r="E54">
-        <v>0.1643564356435644</v>
+        <v>0.2563580874872838</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G54">
-        <v>1.030693069306931</v>
+        <v>1.120040691759919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D55">
-        <v>-17.68509615384615</v>
+        <v>9.034715525554486</v>
       </c>
       <c r="E55">
-        <v>0.2423076923076923</v>
+        <v>3.478784956605594</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G55">
-        <v>1.275</v>
+        <v>0.5916104146576665</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2081,28 +2081,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56">
-        <v>-7.430896226415094</v>
+        <v>1.262376237623763</v>
       </c>
       <c r="E56">
-        <v>0.2377358490566038</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.1018867924528302</v>
+        <v>1.030693069306931</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2112,59 +2112,59 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D57">
-        <v>-16.02892156862745</v>
+        <v>2.200961538461539</v>
       </c>
       <c r="E57">
-        <v>1.55906862745098</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G57">
-        <v>1.513235294117647</v>
+        <v>1.275</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D58">
-        <v>-16.66955445544555</v>
+        <v>12.07995283018868</v>
       </c>
       <c r="E58">
-        <v>0.2495049504950496</v>
+        <v>0.2377358490566038</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.7113861386138614</v>
+        <v>0.1018867924528302</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2174,59 +2174,59 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D59">
-        <v>-0.7327669902912638</v>
+        <v>4.247058823529412</v>
       </c>
       <c r="E59">
-        <v>0.2446601941747573</v>
+        <v>1.289705882352941</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.6902912621359223</v>
+        <v>1.513235294117647</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>3.807178217821783</v>
+      </c>
+      <c r="E60">
+        <v>0.2495049504950496</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>-11.25745192307692</v>
-      </c>
-      <c r="E60">
-        <v>1.076923076923077</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="G60">
-        <v>0.6187500000000001</v>
+        <v>0.7113861386138614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2240,18 +2240,18 @@
         </is>
       </c>
       <c r="D61">
-        <v>-18.33069306930693</v>
+        <v>19.34635922330097</v>
       </c>
       <c r="E61">
-        <v>0.2452970297029703</v>
+        <v>0.2446601941747573</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G61">
-        <v>1.416831683168317</v>
+        <v>0.6902912621359223</v>
       </c>
     </row>
     <row r="62">
@@ -2262,33 +2262,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62">
-        <v>-16.9285</v>
+        <v>8.628605769230768</v>
       </c>
       <c r="E62">
-        <v>0.3512500000000001</v>
+        <v>0.8127403846153846</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G62">
-        <v>0.546</v>
+        <v>0.6187500000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2298,33 +2298,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D63">
-        <v>-16.38325</v>
+        <v>2.146039603960396</v>
       </c>
       <c r="E63">
-        <v>0.2785</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G63">
-        <v>0.8535000000000001</v>
+        <v>1.416831683168317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2333,24 +2333,24 @@
         </is>
       </c>
       <c r="D64">
-        <v>-4.477750000000001</v>
+        <v>3.753</v>
       </c>
       <c r="E64">
-        <v>0.2520000000000001</v>
+        <v>0.07650000000000001</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G64">
-        <v>4.5135</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2360,59 +2360,59 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D65">
-        <v>-16.1540404040404</v>
+        <v>4.29825</v>
       </c>
       <c r="E65">
-        <v>0.2545454545454546</v>
+        <v>0.00375</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.7181818181818181</v>
+        <v>0.8535000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>16.20375</v>
+      </c>
+      <c r="E66">
+        <v>0.2520000000000001</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>-20.28086734693878</v>
-      </c>
-      <c r="E66">
-        <v>0.8734693877551021</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="G66">
-        <v>1.353061224489796</v>
+        <v>4.5135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2422,28 +2422,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D67">
-        <v>-18.56237623762376</v>
+        <v>4.736363636363636</v>
       </c>
       <c r="E67">
-        <v>0.09232673267326737</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G67">
-        <v>1.000990099009901</v>
+        <v>0.7181818181818181</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2457,24 +2457,24 @@
         </is>
       </c>
       <c r="D68">
-        <v>-8.125495049504952</v>
+        <v>0.8227040816326531</v>
       </c>
       <c r="E68">
-        <v>0.4034653465346535</v>
+        <v>0.5931122448979592</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G68">
-        <v>0.8004950495049505</v>
+        <v>1.353061224489796</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2484,28 +2484,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D69">
-        <v>-13.71475</v>
+        <v>1.914356435643564</v>
       </c>
       <c r="E69">
-        <v>0.2520000000000001</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G69">
-        <v>0.6210000000000001</v>
+        <v>1.000990099009901</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2515,28 +2515,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D70">
-        <v>-12.52970297029703</v>
+        <v>12.35123762376238</v>
       </c>
       <c r="E70">
-        <v>0.2495049504950496</v>
+        <v>0.1314356435643564</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G70">
-        <v>0.9415841584158416</v>
+        <v>0.8004950495049505</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2546,22 +2546,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D71">
-        <v>-5.415099009900989</v>
+        <v>6.966749999999999</v>
       </c>
       <c r="E71">
-        <v>1.7</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G71">
-        <v>5.612376237623763</v>
+        <v>0.6210000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -2572,58 +2572,58 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D72">
-        <v>-15.59507389162562</v>
+        <v>7.947029702970298</v>
       </c>
       <c r="E72">
-        <v>0.2482758620689656</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G72">
-        <v>0.9000000000000001</v>
+        <v>0.9415841584158416</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D73">
-        <v>-11.56649484536083</v>
+        <v>15.06163366336634</v>
       </c>
       <c r="E73">
-        <v>1.818041237113402</v>
+        <v>1.427970297029703</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G73">
-        <v>0.9340206185567012</v>
+        <v>5.612376237623763</v>
       </c>
     </row>
     <row r="74">
@@ -2634,33 +2634,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D74">
-        <v>-11.5199494949495</v>
+        <v>4.780788177339902</v>
       </c>
       <c r="E74">
-        <v>0.03131313131313133</v>
+        <v>0.2482758620689656</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G74">
-        <v>1.11969696969697</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2670,59 +2670,59 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D75">
-        <v>-20.011</v>
+        <v>9.754639175257733</v>
       </c>
       <c r="E75">
-        <v>0.2520000000000001</v>
+        <v>1.53479381443299</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G75">
-        <v>1.086</v>
+        <v>0.9340206185567012</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D76">
-        <v>-14.52722772277228</v>
+        <v>9.370454545454546</v>
       </c>
       <c r="E76">
-        <v>0.05074257425742577</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G76">
-        <v>2.604950495049505</v>
+        <v>1.11969696969697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2732,28 +2732,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D77">
-        <v>-20.80769230769231</v>
+        <v>0.6705</v>
       </c>
       <c r="E77">
-        <v>0.2423076923076923</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G77">
-        <v>0.7413461538461539</v>
+        <v>1.086</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2763,33 +2763,33 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D78">
-        <v>-14.19009900990099</v>
+        <v>5.94950495049505</v>
       </c>
       <c r="E78">
-        <v>0.7569306930693069</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G78">
-        <v>0.6816831683168318</v>
+        <v>2.604950495049505</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2798,24 +2798,24 @@
         </is>
       </c>
       <c r="D79">
-        <v>-12.20595238095238</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="E79">
-        <v>3.622380952380952</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G79">
-        <v>0.1771428571428571</v>
+        <v>0.7413461538461539</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2825,28 +2825,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D80">
-        <v>-16.55047071129707</v>
+        <v>6.286633663366337</v>
       </c>
       <c r="E80">
-        <v>0.0944037656903766</v>
+        <v>0.4849009900990099</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G80">
-        <v>0.7358786610878661</v>
+        <v>0.6816831683168318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2860,60 +2860,60 @@
         </is>
       </c>
       <c r="D81">
-        <v>-10.32648514851485</v>
+        <v>7.490714285714285</v>
       </c>
       <c r="E81">
-        <v>7.462376237623763</v>
+        <v>3.360714285714285</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G81">
-        <v>1.58019801980198</v>
+        <v>0.1771428571428571</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D82">
-        <v>-19.5510101010101</v>
+        <v>5.08289748953975</v>
       </c>
       <c r="E82">
-        <v>0.2101010101010101</v>
+        <v>0.2635983263598327</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G82">
-        <v>1.006060606060606</v>
+        <v>0.7358786610878661</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2922,24 +2922,24 @@
         </is>
       </c>
       <c r="D83">
-        <v>-22.62882653061224</v>
+        <v>10.15024752475248</v>
       </c>
       <c r="E83">
-        <v>2.792857142857143</v>
+        <v>7.190346534653466</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G83">
-        <v>2.141326530612245</v>
+        <v>1.58019801980198</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2953,18 +2953,18 @@
         </is>
       </c>
       <c r="D84">
-        <v>-4.947277227722774</v>
+        <v>1.33939393939394</v>
       </c>
       <c r="E84">
-        <v>2.360891089108911</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G84">
-        <v>1.015841584158416</v>
+        <v>1.006060606060606</v>
       </c>
     </row>
     <row r="85">
@@ -2980,28 +2980,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D85">
-        <v>-10.1029702970297</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="E85">
-        <v>1.777227722772277</v>
+        <v>2.5125</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G85">
-        <v>3.83019801980198</v>
+        <v>2.141326530612245</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3011,53 +3011,53 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D86">
-        <v>-11.32083333333333</v>
+        <v>15.52945544554455</v>
       </c>
       <c r="E86">
-        <v>0.009068627450980414</v>
+        <v>2.088861386138614</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G86">
-        <v>0.175</v>
+        <v>1.015841584158416</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D87">
-        <v>-10.01919191919192</v>
+        <v>10.37376237623763</v>
       </c>
       <c r="E87">
-        <v>0.2434343434343435</v>
+        <v>1.50519801980198</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G87">
-        <v>0.8318181818181819</v>
+        <v>3.83019801980198</v>
       </c>
     </row>
     <row r="88">
@@ -3068,157 +3068,157 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D88">
-        <v>-2.942326732673268</v>
+        <v>8.955147058823529</v>
       </c>
       <c r="E88">
-        <v>0.903960396039604</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G88">
-        <v>0.5628712871287129</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D89">
-        <v>-2.971750000000001</v>
+        <v>10.87121212121212</v>
       </c>
       <c r="E89">
-        <v>0.913</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G89">
-        <v>0.5685</v>
+        <v>0.8318181818181819</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D90">
-        <v>-13.98239795918368</v>
+        <v>17.53440594059406</v>
       </c>
       <c r="E90">
-        <v>0.1173469387755102</v>
+        <v>0.6319306930693069</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G90">
-        <v>0.641326530612245</v>
+        <v>0.5628712871287129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D91">
-        <v>-10.25125</v>
+        <v>17.70975</v>
       </c>
       <c r="E91">
-        <v>5.96425</v>
+        <v>0.63825</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G91">
-        <v>1.566</v>
+        <v>0.5685</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D92">
-        <v>-10.63870192307692</v>
+        <v>7.121173469387755</v>
       </c>
       <c r="E92">
-        <v>0.1120192307692308</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G92">
-        <v>1.210096153846154</v>
+        <v>0.641326530612245</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3228,22 +3228,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D93">
-        <v>-18.82525510204082</v>
+        <v>10.43025</v>
       </c>
       <c r="E93">
-        <v>0.1387755102040817</v>
+        <v>5.689500000000001</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G93">
-        <v>1.751020408163265</v>
+        <v>1.566</v>
       </c>
     </row>
     <row r="94">
@@ -3254,119 +3254,181 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D94">
-        <v>-7.779455445544555</v>
+        <v>9.247355769230769</v>
       </c>
       <c r="E94">
-        <v>0.2495049504950496</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G94">
-        <v>1.387128712871287</v>
+        <v>1.210096153846154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D95">
-        <v>-14.3094243268338</v>
+        <v>2.278316326530613</v>
       </c>
       <c r="E95">
-        <v>0.233983286908078</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G95">
-        <v>0.7715877437325906</v>
+        <v>1.751020408163265</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96">
-        <v>-19.85485436893204</v>
+        <v>12.69727722772277</v>
       </c>
       <c r="E96">
-        <v>2.279368932038835</v>
+        <v>0.2495049504950496</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G96">
-        <v>0.9815533980582524</v>
+        <v>1.387128712871287</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>4.893454038997215</v>
+      </c>
+      <c r="E97">
+        <v>0.233983286908078</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G97">
+        <v>0.7715877437325906</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>0.2242718446601942</v>
+      </c>
+      <c r="E98">
+        <v>2.012621359223301</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G98">
+        <v>0.9815533980582524</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D97">
-        <v>-13.89116161616162</v>
-      </c>
-      <c r="E97">
+      <c r="D99">
+        <v>6.999242424242425</v>
+      </c>
+      <c r="E99">
         <v>0.2545454545454546</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G97">
+      <c r="G99">
         <v>1.415151515151515</v>
       </c>
     </row>

--- a/Processed_data/Resin_Nutrients.xlsx
+++ b/Processed_data/Resin_Nutrients.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2352941176470588</v>
+        <v>0.009103717351251763</v>
       </c>
       <c r="E2">
-        <v>0.1463585434173669</v>
+        <v>0.005662728947653625</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.9789915966386555</v>
+        <v>0.03787796683645822</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.2666666666666667</v>
+        <v>0.00904230507014963</v>
       </c>
       <c r="E3">
-        <v>0.276984126984127</v>
+        <v>0.009392156159173274</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.8555555555555556</v>
+        <v>0.02901072876673006</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.07484407484407483</v>
+        <v>0.002608223147980438</v>
       </c>
       <c r="E4">
-        <v>0.261954261954262</v>
+        <v>0.009128781017931535</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.3882536382536383</v>
+        <v>0.01353015758014852</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>1.028684210526316</v>
+        <v>0.04040226558624111</v>
       </c>
       <c r="E5">
-        <v>0.2652631578947369</v>
+        <v>0.01041838928394245</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.7957894736842106</v>
+        <v>0.03125516785182735</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>17.61271676300578</v>
+        <v>0.6813252338538367</v>
       </c>
       <c r="E6">
-        <v>1.731936416184971</v>
+        <v>0.06699772667983453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>1.277456647398844</v>
+        <v>0.04941676294115455</v>
       </c>
     </row>
     <row r="7">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>22.50757575757576</v>
+        <v>0.8303830960721473</v>
       </c>
       <c r="E7">
-        <v>2.622727272727273</v>
+        <v>0.09676157114108967</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>3.013636363636364</v>
+        <v>0.1111835730789297</v>
       </c>
     </row>
     <row r="8">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.2545454545454546</v>
+        <v>0.009611717140895568</v>
       </c>
       <c r="E8">
-        <v>0.2545454545454546</v>
+        <v>0.009611717140895568</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>0.8621212121212123</v>
+        <v>0.03255397055458082</v>
       </c>
     </row>
     <row r="9">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>12.18635902636917</v>
+        <v>0.4385790415008943</v>
       </c>
       <c r="E9">
-        <v>0.8930020283975659</v>
+        <v>0.0321385553162755</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="G9">
-        <v>1.032961460446247</v>
+        <v>0.0371756031682301</v>
       </c>
     </row>
     <row r="10">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>52.07826747720365</v>
+        <v>2.068460764587525</v>
       </c>
       <c r="E10">
-        <v>2.469604863221885</v>
+        <v>0.09808853118712273</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>0.7887537993920973</v>
+        <v>0.03132796780684104</v>
       </c>
     </row>
     <row r="11">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>5.471491228070176</v>
+        <v>0.2207443671110063</v>
       </c>
       <c r="E11">
-        <v>0.2456140350877193</v>
+        <v>0.00990916597853014</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>1.460526315789474</v>
+        <v>0.05892414769375958</v>
       </c>
     </row>
     <row r="12">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>5.264221556886228</v>
+        <v>0.1933417638003079</v>
       </c>
       <c r="E12">
-        <v>0.251497005988024</v>
+        <v>0.009236859467780955</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>0.8368263473053893</v>
+        <v>0.03073455025291401</v>
       </c>
     </row>
     <row r="13">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.1892523364485981</v>
+        <v>0.01614188919888402</v>
       </c>
       <c r="E13">
-        <v>0.04135514018691588</v>
+        <v>0.003527301713830212</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>0.7485981308411215</v>
+        <v>0.06385013949780791</v>
       </c>
     </row>
     <row r="14">
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>1.746996996996997</v>
+        <v>0.06514071364586443</v>
       </c>
       <c r="E14">
-        <v>0.2522522522522523</v>
+        <v>0.009405792773962378</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>1.04954954954955</v>
+        <v>0.03913481636309346</v>
       </c>
     </row>
     <row r="15">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>12.699121522694</v>
+        <v>0.4807038610751893</v>
       </c>
       <c r="E15">
-        <v>0.2276720351390923</v>
+        <v>0.008618141511176796</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.752562225475842</v>
+        <v>0.0284869757990024</v>
       </c>
     </row>
     <row r="16">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.2444228903976722</v>
+        <v>0.009499038787741717</v>
       </c>
       <c r="E16">
-        <v>0.2444228903976722</v>
+        <v>0.009499038787741717</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>1.460717749757517</v>
+        <v>0.05676806513626597</v>
       </c>
     </row>
     <row r="17">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>5.227644230769231</v>
+        <v>0.198856986100951</v>
       </c>
       <c r="E17">
-        <v>0.2423076923076923</v>
+        <v>0.009217264081931237</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>0.7557692307692309</v>
+        <v>0.02874908558888076</v>
       </c>
     </row>
     <row r="18">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.2423076923076923</v>
+        <v>0.00971847281141535</v>
       </c>
       <c r="E18">
-        <v>0.2423076923076923</v>
+        <v>0.00971847281141535</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>0.9360576923076923</v>
+        <v>0.03754338603933668</v>
       </c>
     </row>
     <row r="19">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>5.41875</v>
+        <v>0.1989262114537445</v>
       </c>
       <c r="E19">
-        <v>0.74925</v>
+        <v>0.02750550660792952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>1.746</v>
+        <v>0.06409691629955949</v>
       </c>
     </row>
     <row r="20">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.2423076923076923</v>
+        <v>0.01006550567183256</v>
       </c>
       <c r="E20">
-        <v>0.1471153846153846</v>
+        <v>0.006111199872184055</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>0.04182692307692307</v>
+        <v>0.001737498002875858</v>
       </c>
     </row>
     <row r="21">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>2.528343023255814</v>
+        <v>0.09691887675507019</v>
       </c>
       <c r="E21">
-        <v>0.1082848837209302</v>
+        <v>0.004150880320927123</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>0.9142441860465116</v>
+        <v>0.03504568754178738</v>
       </c>
     </row>
     <row r="22">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.2453748782862707</v>
+        <v>0.009090253228482795</v>
       </c>
       <c r="E22">
-        <v>0.2453748782862707</v>
+        <v>0.009090253228482795</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>0.8529698149951316</v>
+        <v>0.03159945169901162</v>
       </c>
     </row>
     <row r="23">
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.2492581602373888</v>
+        <v>0.009098786828422878</v>
       </c>
       <c r="E23">
-        <v>0.2492581602373888</v>
+        <v>0.009098786828422878</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G23">
-        <v>0.1913946587537092</v>
+        <v>0.006986568457538994</v>
       </c>
     </row>
     <row r="24">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>0.009999612418123329</v>
       </c>
       <c r="E24">
-        <v>0.4905523255813953</v>
+        <v>0.019621332506492</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="G24">
-        <v>1.103197674418605</v>
+        <v>0.04412619665904423</v>
       </c>
     </row>
     <row r="25">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>8.399257425742574</v>
+        <v>0.3192792623259315</v>
       </c>
       <c r="E25">
-        <v>1.703465346534653</v>
+        <v>0.06475348136996613</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G25">
-        <v>1.63960396039604</v>
+        <v>0.06232593150169365</v>
       </c>
     </row>
     <row r="26">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.2093535749265426</v>
+        <v>0.008539069990412271</v>
       </c>
       <c r="E26">
-        <v>0.2468168462291871</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G26">
-        <v>0.6449559255631736</v>
+        <v>0.02630632790028763</v>
       </c>
     </row>
     <row r="27">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.8737864077669902</v>
+        <v>0.03570011900039666</v>
       </c>
       <c r="E27">
-        <v>0.120873786407767</v>
+        <v>0.004938516461721539</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>1.141747572815534</v>
+        <v>0.04664815549385164</v>
       </c>
     </row>
     <row r="28">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="D28">
-        <v>1.770918367346939</v>
+        <v>0.06255632051328262</v>
       </c>
       <c r="E28">
-        <v>0.2571428571428572</v>
+        <v>0.009083372382222545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>0.8938775510204082</v>
+        <v>0.0315755325667736</v>
       </c>
     </row>
     <row r="29">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>2.4421875</v>
+        <v>0.09596021611001965</v>
       </c>
       <c r="E29">
-        <v>0.2625</v>
+        <v>0.01031434184675835</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>0.8968750000000001</v>
+        <v>0.03524066797642437</v>
       </c>
     </row>
     <row r="30">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>1.378030303030303</v>
+        <v>0.05315604909409703</v>
       </c>
       <c r="E30">
-        <v>0.2545454545454546</v>
+        <v>0.009818819403857395</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>0.6727272727272728</v>
+        <v>0.02594973699590883</v>
       </c>
     </row>
     <row r="31">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.2409177820267687</v>
+        <v>0.009324699352451437</v>
       </c>
       <c r="E31">
-        <v>0.2409177820267687</v>
+        <v>0.009324699352451437</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G31">
-        <v>0.9235181644359464</v>
+        <v>0.03574468085106383</v>
       </c>
     </row>
     <row r="32">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.9659206510681586</v>
+        <v>0.03544232922732363</v>
       </c>
       <c r="E32">
-        <v>0.3532553407934893</v>
+        <v>0.01296192609182531</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.1098677517802645</v>
+        <v>0.004031354983202688</v>
       </c>
     </row>
     <row r="33">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="D33">
-        <v>4.132281553398058</v>
+        <v>0.3672346850733391</v>
       </c>
       <c r="E33">
-        <v>0.5111650485436893</v>
+        <v>0.04542709232096635</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>0.6393203883495147</v>
+        <v>0.05681622088006904</v>
       </c>
     </row>
     <row r="34">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="D34">
-        <v>2.23936170212766</v>
+        <v>0.08926696284329563</v>
       </c>
       <c r="E34">
-        <v>0.05243161094224924</v>
+        <v>0.002090064620355412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>0.4848024316109423</v>
+        <v>0.01932552504038772</v>
       </c>
     </row>
     <row r="35">
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="D35">
-        <v>6.033400809716599</v>
+        <v>0.2406248738545998</v>
       </c>
       <c r="E35">
-        <v>0.242914979757085</v>
+        <v>0.009687966737980867</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.9701417004048584</v>
+        <v>0.03869131715981108</v>
       </c>
     </row>
     <row r="36">
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>12.45865384615385</v>
+        <v>0.5086761934673367</v>
       </c>
       <c r="E36">
-        <v>3.642548076923077</v>
+        <v>0.1487221262562814</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>6.445673076923076</v>
+        <v>0.2631713253768844</v>
       </c>
     </row>
     <row r="37">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D37">
-        <v>22.20056497175141</v>
+        <v>1.767921415716857</v>
       </c>
       <c r="E37">
-        <v>0.8156779661016949</v>
+        <v>0.06495575884823035</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>0.768361581920904</v>
+        <v>0.06118776244751049</v>
       </c>
     </row>
     <row r="38">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="D38">
-        <v>4.478853383458646</v>
+        <v>0.1930368209989063</v>
       </c>
       <c r="E38">
-        <v>0.2368421052631579</v>
+        <v>0.01020780167699599</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>0.9431390977443608</v>
+        <v>0.04064892453518046</v>
       </c>
     </row>
     <row r="39">
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>23.01165254237288</v>
+        <v>0.814052838673412</v>
       </c>
       <c r="E39">
-        <v>4.958421610169492</v>
+        <v>0.1754075323215289</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>1.603283898305085</v>
+        <v>0.05671725688589095</v>
       </c>
     </row>
     <row r="40">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>57.84284332688588</v>
+        <v>2.426447320378109</v>
       </c>
       <c r="E40">
-        <v>4.772001934235977</v>
+        <v>0.2001805347072904</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>2.464700193423597</v>
+        <v>0.1033916183212301</v>
       </c>
     </row>
     <row r="41">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>2.039678675754625</v>
+        <v>0.086139896373057</v>
       </c>
       <c r="E41">
-        <v>0.7200584225900681</v>
+        <v>0.03040957315568714</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>0.1051606621226874</v>
+        <v>0.004441154700222058</v>
       </c>
     </row>
     <row r="42">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="D42">
-        <v>0.2444228903976722</v>
+        <v>0.009090909090909092</v>
       </c>
       <c r="E42">
-        <v>0.06110572259941804</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>0.8423860329776917</v>
+        <v>0.03133116883116883</v>
       </c>
     </row>
     <row r="43">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.2487660414610069</v>
+        <v>0.009583206571341651</v>
       </c>
       <c r="E43">
-        <v>0.2487660414610069</v>
+        <v>0.009583206571341651</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="G43">
-        <v>1.020236920039487</v>
+        <v>0.03930255552175236</v>
       </c>
     </row>
     <row r="44">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.1418316831683168</v>
+        <v>0.005335195530726256</v>
       </c>
       <c r="E44">
-        <v>0.2012376237623762</v>
+        <v>0.007569832402234637</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>0.8227722772277228</v>
+        <v>0.03094972067039106</v>
       </c>
     </row>
     <row r="45">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.2527582748244734</v>
+        <v>0.009748549323017408</v>
       </c>
       <c r="E45">
-        <v>0.2527582748244734</v>
+        <v>0.009748549323017408</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>1.450351053159478</v>
+        <v>0.05593810444874274</v>
       </c>
     </row>
     <row r="46">
@@ -1775,86 +1775,86 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.5462776659959759</v>
+        <v>0.03704967248908297</v>
       </c>
       <c r="E46">
-        <v>2.525402414486922</v>
+        <v>0.1712779748908297</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.1116700201207244</v>
+        <v>0.007573689956331877</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D47">
-        <v>0.543</v>
+        <v>0.01628376672557435</v>
       </c>
       <c r="E47">
-        <v>2.51025</v>
+        <v>0.02991668770512497</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.111</v>
+        <v>0.03212572582681141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0.009655172413793104</v>
+      </c>
+      <c r="E48">
+        <v>0.009655172413793104</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D48">
-        <v>0.387</v>
-      </c>
-      <c r="E48">
-        <v>0.711</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="G48">
-        <v>0.7635000000000001</v>
+        <v>0.03471264367816092</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1864,121 +1864,121 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.2520000000000001</v>
+        <v>0.1688873704589454</v>
       </c>
       <c r="E49">
-        <v>0.2520000000000001</v>
+        <v>0.009566108643662455</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.9060000000000001</v>
+        <v>0.02328891925748776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D50">
-        <v>4.286127167630057</v>
+        <v>0.1746234627608125</v>
       </c>
       <c r="E50">
-        <v>0.2427745664739885</v>
+        <v>0.01741052922481691</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.5910404624277458</v>
+        <v>0.01958684537791902</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D51">
-        <v>2.542756539235413</v>
+        <v>0.1418285632204546</v>
       </c>
       <c r="E51">
-        <v>0.2535211267605634</v>
+        <v>0.08071785111502137</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.2852112676056338</v>
+        <v>0.03145760764175675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D52">
-        <v>2.5275</v>
+        <v>0.009610983981693366</v>
       </c>
       <c r="E52">
-        <v>0.2520000000000001</v>
+        <v>0.009610983981693366</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.2835</v>
+        <v>0.0419908466819222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1988,22 +1988,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D53">
-        <v>3.804913294797687</v>
+        <v>0.3326705251571211</v>
       </c>
       <c r="E53">
-        <v>2.165462427745665</v>
+        <v>0.1280935979831694</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.8439306358381503</v>
+        <v>0.02178390086283422</v>
       </c>
     </row>
     <row r="54">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2023,55 +2023,55 @@
         </is>
       </c>
       <c r="D54">
-        <v>0.2563580874872838</v>
+        <v>0.05096738087623921</v>
       </c>
       <c r="E54">
-        <v>0.2563580874872838</v>
+        <v>0.01007355292612728</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G54">
-        <v>1.120040691759919</v>
+        <v>0.04161336744483531</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D55">
-        <v>9.034715525554486</v>
+        <v>0.08627968337730871</v>
       </c>
       <c r="E55">
-        <v>3.478784956605594</v>
+        <v>0.009498680738786279</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.5916104146576665</v>
+        <v>0.04998115341123256</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2081,28 +2081,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D56">
-        <v>1.262376237623763</v>
+        <v>0.4463140467061694</v>
       </c>
       <c r="E56">
-        <v>0.2495049504950496</v>
+        <v>0.008783548274660161</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G56">
-        <v>1.030693069306931</v>
+        <v>0.003764377831997212</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2112,59 +2112,59 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D57">
-        <v>2.200961538461539</v>
+        <v>0.1578717201166181</v>
       </c>
       <c r="E57">
-        <v>0.2423076923076923</v>
+        <v>0.04794096209912536</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G57">
-        <v>1.275</v>
+        <v>0.05625000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D58">
-        <v>12.07995283018868</v>
+        <v>0.1439090568862276</v>
       </c>
       <c r="E58">
-        <v>0.2377358490566038</v>
+        <v>0.009431137724550899</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.1018867924528302</v>
+        <v>0.02688997005988024</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2174,33 +2174,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D59">
-        <v>4.247058823529412</v>
+        <v>1.925289855072464</v>
       </c>
       <c r="E59">
-        <v>1.289705882352941</v>
+        <v>0.02434782608695652</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G59">
-        <v>1.513235294117647</v>
+        <v>0.06869565217391305</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2209,24 +2209,24 @@
         </is>
       </c>
       <c r="D60">
-        <v>3.807178217821783</v>
+        <v>0.3315016623568526</v>
       </c>
       <c r="E60">
-        <v>0.2495049504950496</v>
+        <v>0.03122460288141854</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G60">
-        <v>0.7113861386138614</v>
+        <v>0.02377170299224234</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2240,18 +2240,18 @@
         </is>
       </c>
       <c r="D61">
-        <v>19.34635922330097</v>
+        <v>0.07925045703839122</v>
       </c>
       <c r="E61">
-        <v>0.2446601941747573</v>
+        <v>0.009213893967093236</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.6902912621359223</v>
+        <v>0.0523217550274223</v>
       </c>
     </row>
     <row r="62">
@@ -2262,33 +2262,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D62">
-        <v>8.628605769230768</v>
+        <v>0.2891371340523882</v>
       </c>
       <c r="E62">
-        <v>0.8127403846153846</v>
+        <v>0.005893682588597842</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G62">
-        <v>0.6187500000000001</v>
+        <v>0.04206471494607088</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2298,33 +2298,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D63">
-        <v>2.146039603960396</v>
+        <v>0.1674425399298793</v>
       </c>
       <c r="E63">
-        <v>0.2495049504950496</v>
+        <v>0.0001460849240358395</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G63">
-        <v>1.416831683168317</v>
+        <v>0.03324892871055708</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2333,24 +2333,24 @@
         </is>
       </c>
       <c r="D64">
-        <v>3.753</v>
+        <v>0.6175209603658536</v>
       </c>
       <c r="E64">
-        <v>0.07650000000000001</v>
+        <v>0.009603658536585367</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G64">
-        <v>0.546</v>
+        <v>0.1720083841463415</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2360,28 +2360,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D65">
-        <v>4.29825</v>
+        <v>0.1795863653772501</v>
       </c>
       <c r="E65">
-        <v>0.00375</v>
+        <v>0.009651474530831101</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.8535000000000001</v>
+        <v>0.02723094599770203</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2395,24 +2395,24 @@
         </is>
       </c>
       <c r="D66">
-        <v>16.20375</v>
+        <v>0.03063259878419453</v>
       </c>
       <c r="E66">
-        <v>0.2520000000000001</v>
+        <v>0.02208396656534954</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G66">
-        <v>4.5135</v>
+        <v>0.05037993920972645</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2422,28 +2422,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D67">
-        <v>4.736363636363636</v>
+        <v>0.07056569343065693</v>
       </c>
       <c r="E67">
-        <v>0.2545454545454546</v>
+        <v>0.009197080291970805</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G67">
-        <v>0.7181818181818181</v>
+        <v>0.0368978102189781</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2457,24 +2457,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>0.8227040816326531</v>
+        <v>0.9159140969162997</v>
       </c>
       <c r="E68">
-        <v>0.5931122448979592</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+        <v>0.009746696035242293</v>
       </c>
       <c r="G68">
-        <v>1.353061224489796</v>
+        <v>0.05936123348017622</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2484,28 +2479,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D69">
-        <v>1.914356435643564</v>
+        <v>0.2650970319634703</v>
       </c>
       <c r="E69">
-        <v>0.2495049504950496</v>
+        <v>0.009589041095890413</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G69">
-        <v>1.000990099009901</v>
+        <v>0.02363013698630137</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2515,28 +2510,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D70">
-        <v>12.35123762376238</v>
+        <v>0.2979398663697105</v>
       </c>
       <c r="E70">
-        <v>0.1314356435643564</v>
+        <v>0.00935412026726058</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G70">
-        <v>0.8004950495049505</v>
+        <v>0.03530066815144766</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2546,22 +2541,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D71">
-        <v>6.966749999999999</v>
+        <v>0.6908378746594007</v>
       </c>
       <c r="E71">
-        <v>0.2520000000000001</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+        <v>0.06549727520435968</v>
       </c>
       <c r="G71">
-        <v>0.6210000000000001</v>
+        <v>0.257425068119891</v>
       </c>
     </row>
     <row r="72">
@@ -2572,58 +2562,58 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D72">
-        <v>7.947029702970298</v>
+        <v>0.1770985401459854</v>
       </c>
       <c r="E72">
-        <v>0.2495049504950496</v>
+        <v>0.009197080291970805</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G72">
-        <v>0.9415841584158416</v>
+        <v>0.03333941605839417</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D73">
-        <v>15.06163366336634</v>
+        <v>0.7200913242009133</v>
       </c>
       <c r="E73">
-        <v>1.427970297029703</v>
+        <v>0.1132990867579909</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G73">
-        <v>5.612376237623763</v>
+        <v>0.06894977168949773</v>
       </c>
     </row>
     <row r="74">
@@ -2634,33 +2624,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D74">
-        <v>4.780788177339902</v>
+        <v>0.3297813722004977</v>
       </c>
       <c r="E74">
-        <v>0.2482758620689656</v>
+        <v>0.008958407394241027</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G74">
-        <v>0.9000000000000001</v>
+        <v>0.03940632776395309</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2670,59 +2660,59 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D75">
-        <v>9.754639175257733</v>
+        <v>0.02583815028901734</v>
       </c>
       <c r="E75">
-        <v>1.53479381443299</v>
+        <v>0.00971098265895954</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G75">
-        <v>0.9340206185567012</v>
+        <v>0.04184971098265897</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D76">
-        <v>9.370454545454546</v>
+        <v>0.2351859099804305</v>
       </c>
       <c r="E76">
-        <v>0.2545454545454546</v>
+        <v>0.009863013698630138</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G76">
-        <v>1.11969696969697</v>
+        <v>0.1029745596868884</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2732,28 +2722,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D77">
-        <v>0.6705</v>
+        <v>0.0188622754491018</v>
       </c>
       <c r="E77">
-        <v>0.2520000000000001</v>
+        <v>0.0188622754491018</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G77">
-        <v>1.086</v>
+        <v>0.05770958083832336</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2763,33 +2753,33 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D78">
-        <v>5.94950495049505</v>
+        <v>0.2390625</v>
       </c>
       <c r="E78">
-        <v>0.2495049504950496</v>
+        <v>0.01843938253012048</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G78">
-        <v>2.604950495049505</v>
+        <v>0.02592243975903615</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2798,24 +2788,24 @@
         </is>
       </c>
       <c r="D79">
-        <v>0.2423076923076923</v>
+        <v>0.7028820375335121</v>
       </c>
       <c r="E79">
-        <v>0.2423076923076923</v>
+        <v>0.3153485254691689</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G79">
-        <v>0.7413461538461539</v>
+        <v>0.01662198391420911</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2825,28 +2815,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D80">
-        <v>6.286633663366337</v>
+        <v>0.3664316416559837</v>
       </c>
       <c r="E80">
-        <v>0.4849009900990099</v>
+        <v>0.01900309177286781</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G80">
-        <v>0.6816831683168318</v>
+        <v>0.05305029786592263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2860,60 +2850,60 @@
         </is>
       </c>
       <c r="D81">
-        <v>7.490714285714285</v>
+        <v>0.3867125612976235</v>
       </c>
       <c r="E81">
-        <v>3.360714285714285</v>
+        <v>0.2739437947944172</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G81">
-        <v>0.1771428571428571</v>
+        <v>0.06020369671821955</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D82">
-        <v>5.08289748953975</v>
+        <v>0.0408</v>
       </c>
       <c r="E82">
-        <v>0.2635983263598327</v>
+        <v>0.007753846153846155</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G82">
-        <v>0.7358786610878661</v>
+        <v>0.03064615384615385</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2922,24 +2912,24 @@
         </is>
       </c>
       <c r="D83">
-        <v>10.15024752475248</v>
+        <v>0.02042139384116694</v>
       </c>
       <c r="E83">
-        <v>7.190346534653466</v>
+        <v>0.1995340356564019</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G83">
-        <v>1.58019801980198</v>
+        <v>0.1700567260940032</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2953,18 +2943,18 @@
         </is>
       </c>
       <c r="D84">
-        <v>1.33939393939394</v>
+        <v>0.5785595721136112</v>
       </c>
       <c r="E84">
-        <v>0.2545454545454546</v>
+        <v>0.07782183696053117</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G84">
-        <v>1.006060606060606</v>
+        <v>0.03784581335300628</v>
       </c>
     </row>
     <row r="85">
@@ -2980,28 +2970,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D85">
-        <v>0.2571428571428572</v>
+        <v>0.3797571583907213</v>
       </c>
       <c r="E85">
-        <v>2.5125</v>
+        <v>0.05510148604566872</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G85">
-        <v>2.141326530612245</v>
+        <v>0.1402138455962305</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3011,53 +3001,53 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D86">
-        <v>15.52945544554455</v>
+        <v>0.3437805796010538</v>
       </c>
       <c r="E86">
-        <v>2.088861386138614</v>
+        <v>0.009484380880692513</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G86">
-        <v>1.015841584158416</v>
+        <v>0.00671810312382386</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D87">
-        <v>10.37376237623763</v>
+        <v>0.3989213832981208</v>
       </c>
       <c r="E87">
-        <v>1.50519801980198</v>
+        <v>0.00934059824307795</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G87">
-        <v>3.83019801980198</v>
+        <v>0.03052374068720116</v>
       </c>
     </row>
     <row r="88">
@@ -3068,157 +3058,157 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D88">
-        <v>8.955147058823529</v>
+        <v>1.254231586402266</v>
       </c>
       <c r="E88">
-        <v>0.2470588235294118</v>
+        <v>0.04520184135977337</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G88">
-        <v>0.175</v>
+        <v>0.04026203966005666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D89">
-        <v>10.87121212121212</v>
+        <v>1.389</v>
       </c>
       <c r="E89">
-        <v>0.2545454545454546</v>
+        <v>0.05005882352941177</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G89">
-        <v>0.8318181818181819</v>
+        <v>0.04458823529411765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D90">
-        <v>17.53440594059406</v>
+        <v>0.51389911634757</v>
       </c>
       <c r="E90">
-        <v>0.6319306930693069</v>
+        <v>0.01855670103092784</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G90">
-        <v>0.5628712871287129</v>
+        <v>0.04628129602356407</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D91">
-        <v>17.70975</v>
+        <v>0.3830426000734484</v>
       </c>
       <c r="E91">
-        <v>0.63825</v>
+        <v>0.2089423430040397</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G91">
-        <v>0.5685</v>
+        <v>0.05751009915534337</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D92">
-        <v>7.121173469387755</v>
+        <v>0.5306361730302361</v>
       </c>
       <c r="E92">
-        <v>0.2571428571428572</v>
+        <v>0.01390421540498786</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G92">
-        <v>0.641326530612245</v>
+        <v>0.06943831383800486</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3228,22 +3218,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D93">
-        <v>10.43025</v>
+        <v>0.06972985633978764</v>
       </c>
       <c r="E93">
-        <v>5.689500000000001</v>
+        <v>0.00787008119925047</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G93">
-        <v>1.566</v>
+        <v>0.05359150530918176</v>
       </c>
     </row>
     <row r="94">
@@ -3254,95 +3244,95 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94">
-        <v>9.247355769230769</v>
+        <v>0.8305861398963731</v>
       </c>
       <c r="E94">
-        <v>0.2423076923076923</v>
+        <v>0.01632124352331606</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G94">
-        <v>1.210096153846154</v>
+        <v>0.09073834196891191</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95">
-        <v>2.278316326530613</v>
+        <v>0.401573453215483</v>
       </c>
       <c r="E95">
-        <v>0.2571428571428572</v>
+        <v>0.01920146296860713</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G95">
-        <v>1.751020408163265</v>
+        <v>0.06331911002743067</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D96">
-        <v>12.69727722772277</v>
+        <v>0.008185393855639418</v>
       </c>
       <c r="E96">
-        <v>0.2495049504950496</v>
+        <v>0.07345593706814074</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G96">
-        <v>1.387128712871287</v>
+        <v>0.03582438609546083</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3352,84 +3342,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D97">
-        <v>4.893454038997215</v>
+        <v>0.2661002304147466</v>
       </c>
       <c r="E97">
-        <v>0.233983286908078</v>
+        <v>0.009677419354838712</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G97">
-        <v>0.7715877437325906</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D98">
-        <v>0.2242718446601942</v>
-      </c>
-      <c r="E98">
-        <v>2.012621359223301</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G98">
-        <v>0.9815533980582524</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D99">
-        <v>6.999242424242425</v>
-      </c>
-      <c r="E99">
-        <v>0.2545454545454546</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G99">
-        <v>1.415151515151515</v>
+        <v>0.05380184331797235</v>
       </c>
     </row>
   </sheetData>
